--- a/3. WYJAZDY/6. International - RZESZOW/Lista wyzywienia.xlsx
+++ b/3. WYJAZDY/6. International - RZESZOW/Lista wyzywienia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\8. URBACT\3. WYJAZDY\6. International - RZESZOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91F25F-6E3B-474A-93C1-F53504936367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47D73B-6130-4F49-86C1-BA4590DCEF64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4637BB37-D1D3-4335-8E71-7468B1D0ED46}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A22" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A10:A15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
